--- a/Análise.atualizado.xlsx
+++ b/Análise.atualizado.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7813EEA6-AA37-4458-9863-373F2265F0DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E649EEE-ACCC-4A30-9EE5-03655A7B7694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t>Sobre este modelo</t>
   </si>
@@ -64,18 +64,6 @@
     <t>Subtotal</t>
   </si>
   <si>
-    <t>Seguro</t>
-  </si>
-  <si>
-    <t>Casa</t>
-  </si>
-  <si>
-    <t>Saúde</t>
-  </si>
-  <si>
-    <t>Vida</t>
-  </si>
-  <si>
     <t>Comida</t>
   </si>
   <si>
@@ -113,10 +101,6 @@
   </si>
   <si>
     <t>Impostos ou taxas de organização</t>
-  </si>
-  <si>
-    <t>Estimado
-custo</t>
   </si>
   <si>
     <t>Estimado 
@@ -128,18 +112,6 @@
   </si>
   <si>
     <t>Diferença</t>
-  </si>
-  <si>
-    <t>Empréstimos</t>
-  </si>
-  <si>
-    <t>Pessoal</t>
-  </si>
-  <si>
-    <t>Estudante</t>
-  </si>
-  <si>
-    <t>Cartão de crédito</t>
   </si>
   <si>
     <t>Impostos</t>
@@ -287,9 +259,6 @@
     <t>Buffet</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Pago</t>
   </si>
   <si>
@@ -300,6 +269,12 @@
   </si>
   <si>
     <t>~,</t>
+  </si>
+  <si>
+    <t>Entrada (20%)</t>
+  </si>
+  <si>
+    <t>Entrada (10%)</t>
   </si>
 </sst>
 </file>
@@ -312,7 +287,7 @@
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -564,6 +539,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -989,6 +970,39 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="11"/>
     </xf>
@@ -1024,39 +1038,6 @@
     </xf>
     <xf numFmtId="8" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1106,7 +1087,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.24994659260841701"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1132,7 +1113,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
+        <color theme="1" tint="0.24994659260841701"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1182,19 +1163,20 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="12"/>
         <color theme="1" tint="0.34998626667073579"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1208,7 +1190,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
+        <color theme="1" tint="0.34998626667073579"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1234,7 +1216,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
+        <color theme="1" tint="0.34998626667073579"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1259,20 +1241,19 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color theme="1" tint="0.34998626667073579"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2396,22 +2377,48 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -2422,19 +2429,45 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -2445,23 +2478,74 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3179,26 +3263,21 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3226,122 +3305,24 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3471,7 +3452,11 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -3486,6 +3471,28 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3493,13 +3500,17 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -3508,6 +3519,28 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3515,13 +3548,17 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -3530,10 +3567,57 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3662,26 +3746,23 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3714,123 +3795,23 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4848,7 +4829,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Animais de estimação" displayName="Animais_de_estimação" ref="B45:E51" totalsRowCount="1" headerRowDxfId="46" dataDxfId="44" totalsRowDxfId="43" headerRowBorderDxfId="45" totalsRowBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Animais de estimação" displayName="Animais_de_estimação" ref="B41:E47" totalsRowCount="1" headerRowDxfId="46" dataDxfId="44" totalsRowDxfId="43" headerRowBorderDxfId="45" totalsRowBorderDxfId="42">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="41" totalsRowDxfId="40"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Estimado _x000a_custo" dataDxfId="39" totalsRowDxfId="38"/>
@@ -4869,7 +4850,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Assessoria jurídica" displayName="Assessoria_jurídica" ref="G64:J69" totalsRowCount="1" headerRowDxfId="33" dataDxfId="31" totalsRowDxfId="30" headerRowBorderDxfId="32" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Assessoria jurídica" displayName="Assessoria_jurídica" ref="G59:J64" totalsRowCount="1" headerRowDxfId="33" dataDxfId="31" totalsRowDxfId="30" headerRowBorderDxfId="32" totalsRowBorderDxfId="29">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="ASSESSORIA JURÍDICA" totalsRowLabel="Subtotal" dataDxfId="28" totalsRowDxfId="27"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Estimado _x000a_custo" dataDxfId="26" totalsRowDxfId="25"/>
@@ -4890,8 +4871,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="CuidadosPessoais" displayName="CuidadosPessoais" ref="B54:E62" totalsRowCount="1" headerRowDxfId="20" dataDxfId="18" totalsRowDxfId="17" headerRowBorderDxfId="19" totalsRowBorderDxfId="16">
-  <autoFilter ref="B54:E61" xr:uid="{00000000-0009-0000-0100-00000C000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="CuidadosPessoais" displayName="CuidadosPessoais" ref="B50:E58" totalsRowCount="1" headerRowDxfId="20" dataDxfId="18" totalsRowDxfId="17" headerRowBorderDxfId="19" totalsRowBorderDxfId="16">
+  <autoFilter ref="B50:E57" xr:uid="{00000000-0009-0000-0100-00000C000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -4942,21 +4923,19 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Empréstimos" displayName="Empréstimos" ref="G29:J36" totalsRowCount="1" headerRowDxfId="134" dataDxfId="132" totalsRowDxfId="130" headerRowBorderDxfId="133" tableBorderDxfId="131" totalsRowBorderDxfId="129">
-  <autoFilter ref="G29:J35" xr:uid="{00000000-0009-0000-0100-000003000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Empréstimos" displayName="Empréstimos" ref="G29:J31" totalsRowCount="1" headerRowDxfId="134" dataDxfId="132" totalsRowDxfId="130" headerRowBorderDxfId="133" tableBorderDxfId="131" totalsRowBorderDxfId="129">
+  <autoFilter ref="G29:J30" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="128" totalsRowDxfId="127"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Estimado _x000a_custo" dataDxfId="126" totalsRowDxfId="125"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Real _x000a_custo" dataDxfId="124" totalsRowDxfId="123"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="122" totalsRowDxfId="121">
-      <calculatedColumnFormula>Empréstimos[[#This Row],[Estimado 
-custo]]-Empréstimos[[#This Row],[Real 
-custo]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="128" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Parcela" dataDxfId="127" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Data de pagamento" dataDxfId="126" totalsRowDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Pago" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="0">
+      <calculatedColumnFormula>Empréstimos[[#This Row],[Parcela]]-Empréstimos[[#This Row],[Data de pagamento]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Catálogo de endereços" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -4969,18 +4948,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Transporte" displayName="Transporte" ref="B20:E27" headerRowDxfId="120" dataDxfId="118" totalsRowDxfId="116" headerRowBorderDxfId="119" tableBorderDxfId="117" totalsRowBorderDxfId="115">
-  <autoFilter ref="B20:E27" xr:uid="{00000000-0009-0000-0100-000004000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Transporte" displayName="Transporte" ref="B20:E23" headerRowDxfId="124" dataDxfId="122" totalsRowDxfId="120" headerRowBorderDxfId="123" tableBorderDxfId="121" totalsRowBorderDxfId="119">
+  <autoFilter ref="B20:E23" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="0" dataDxfId="114" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Parcela" dataDxfId="113" totalsRowDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Data de pagamento" dataDxfId="112" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Pago" dataDxfId="111" totalsRowDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="0" dataDxfId="118" totalsRowDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Parcela" dataDxfId="116" totalsRowDxfId="115"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Data de pagamento" dataDxfId="114" totalsRowDxfId="113"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Pago" dataDxfId="112" totalsRowDxfId="111">
       <calculatedColumnFormula>Transporte[[#This Row],[Parcela]]-Transporte[[#This Row],[Data de pagamento]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4994,21 +4973,19 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Seguro" displayName="Seguro" ref="B30:E35" totalsRowCount="1" headerRowDxfId="110" dataDxfId="108" totalsRowDxfId="106" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="105">
-  <autoFilter ref="B30:E34" xr:uid="{00000000-0009-0000-0100-000005000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Seguro" displayName="Seguro" ref="B26:E31" totalsRowCount="1" headerRowDxfId="110" dataDxfId="108" totalsRowDxfId="106" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="105">
+  <autoFilter ref="B26:E30" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="104" totalsRowDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Estimado_x000a_custo" dataDxfId="102" totalsRowDxfId="101"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Real _x000a_custo" dataDxfId="100" totalsRowDxfId="99"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="98" totalsRowDxfId="97">
-      <calculatedColumnFormula>Seguro[[#This Row],[Estimado
-custo]]-Seguro[[#This Row],[Real 
-custo]]</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="104" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Parcela" dataDxfId="103" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Data de pagamento" dataDxfId="102" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Pago" totalsRowFunction="sum" dataDxfId="101" totalsRowDxfId="4">
+      <calculatedColumnFormula>Seguro[[#This Row],[Parcela]]-Seguro[[#This Row],[Data de pagamento]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Catálogo de endereços" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
@@ -5021,18 +4998,18 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Impostos" displayName="Impostos" ref="G40:J45" totalsRowCount="1" headerRowDxfId="96" dataDxfId="94" totalsRowDxfId="92" headerRowBorderDxfId="95" tableBorderDxfId="93" totalsRowBorderDxfId="91">
-  <autoFilter ref="G40:J44" xr:uid="{00000000-0009-0000-0100-000006000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Impostos" displayName="Impostos" ref="G35:J40" totalsRowCount="1" headerRowDxfId="100" dataDxfId="98" totalsRowDxfId="96" headerRowBorderDxfId="99" tableBorderDxfId="97" totalsRowBorderDxfId="95">
+  <autoFilter ref="G35:J39" xr:uid="{00000000-0009-0000-0100-000006000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Estimado _x000a_custo" dataDxfId="88" totalsRowDxfId="87"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Real _x000a_custo" dataDxfId="86" totalsRowDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="84" totalsRowDxfId="83">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="94" totalsRowDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Estimado _x000a_custo" dataDxfId="92" totalsRowDxfId="91"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Real _x000a_custo" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="88" totalsRowDxfId="87">
       <calculatedColumnFormula>Impostos[[#This Row],[Estimado 
 custo]]-Impostos[[#This Row],[Real 
 custo]]</calculatedColumnFormula>
@@ -5048,18 +5025,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Poupança" displayName="Poupança" ref="G48:J52" totalsRowCount="1" headerRowDxfId="82" dataDxfId="80" totalsRowDxfId="79" headerRowBorderDxfId="81" totalsRowBorderDxfId="78">
-  <autoFilter ref="G48:J51" xr:uid="{00000000-0009-0000-0100-000007000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Poupança" displayName="Poupança" ref="G43:J47" totalsRowCount="1" headerRowDxfId="86" dataDxfId="84" totalsRowDxfId="83" headerRowBorderDxfId="85" totalsRowBorderDxfId="82">
+  <autoFilter ref="G43:J46" xr:uid="{00000000-0009-0000-0100-000007000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Estimado _x000a_custo" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Real _x000a_custo" dataDxfId="73" totalsRowDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Estimado _x000a_custo" dataDxfId="79" totalsRowDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Real _x000a_custo" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="74">
       <calculatedColumnFormula>Poupança[[#This Row],[Estimado 
 custo]]-Poupança[[#This Row],[Real 
 custo]]</calculatedColumnFormula>
@@ -5075,18 +5052,18 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Alimentação" displayName="Alimentação" ref="B38:E42" totalsRowCount="1" headerRowDxfId="69" dataDxfId="67" totalsRowDxfId="65" headerRowBorderDxfId="68" tableBorderDxfId="66" totalsRowBorderDxfId="64">
-  <autoFilter ref="B38:E41" xr:uid="{00000000-0009-0000-0100-000008000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Alimentação" displayName="Alimentação" ref="B34:E38" totalsRowCount="1" headerRowDxfId="73" dataDxfId="71" totalsRowDxfId="69" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="68">
+  <autoFilter ref="B34:E37" xr:uid="{00000000-0009-0000-0100-000008000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="0" totalsRowLabel="~," dataDxfId="63" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Estimado _x000a_custo" dataDxfId="62" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Real _x000a_custo" dataDxfId="61" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="60" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="0" totalsRowLabel="~," dataDxfId="67" totalsRowDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Estimado _x000a_custo" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Real _x000a_custo" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60">
       <calculatedColumnFormula>Alimentação[[#This Row],[Estimado 
 custo]]-Alimentação[[#This Row],[Real 
 custo]]</calculatedColumnFormula>
@@ -5102,8 +5079,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Presentes" displayName="Presentes" ref="G55:J59" totalsRowCount="1" headerRowDxfId="59" dataDxfId="57" totalsRowDxfId="56" headerRowBorderDxfId="58" totalsRowBorderDxfId="55">
-  <autoFilter ref="G55:J58" xr:uid="{00000000-0009-0000-0100-000009000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Presentes" displayName="Presentes" ref="G50:J54" totalsRowCount="1" headerRowDxfId="59" dataDxfId="57" totalsRowDxfId="56" headerRowBorderDxfId="58" totalsRowBorderDxfId="55">
+  <autoFilter ref="G50:J53" xr:uid="{00000000-0009-0000-0100-000009000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -5399,8 +5376,8 @@
   </sheetPr>
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33:J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5419,61 +5396,61 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
-      <c r="B2" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="B2" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="82"/>
+      <c r="B4" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="93"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="84">
+      <c r="E4" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="95">
         <f>C7</f>
         <v>60000</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C5" s="50">
         <v>30000</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="84"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="95"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C6" s="51">
         <v>30000</v>
       </c>
-      <c r="E6" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="85">
+      <c r="E6" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="96">
         <f>SUM(Moradia[[#Totals],[Valor]])</f>
         <v>3690</v>
       </c>
@@ -5481,45 +5458,45 @@
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C7" s="52">
         <f>SUM(C5:C6)</f>
         <v>60000</v>
       </c>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="85"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="96"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="86">
+      <c r="E8" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="97">
         <f>H4-H6</f>
         <v>56310</v>
       </c>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="83"/>
+      <c r="B9" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="94"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="86"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="97"/>
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C10" s="51">
         <v>0</v>
@@ -5528,7 +5505,7 @@
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C11" s="53">
         <v>400</v>
@@ -5539,7 +5516,7 @@
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C12" s="52">
         <f>SUM(C10:C11)</f>
@@ -5553,13 +5530,13 @@
     <row r="14" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22"/>
       <c r="B14" s="27" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="G14" s="26" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -5570,44 +5547,44 @@
         <v>7</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="31" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C16" s="71">
         <v>1</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E16" s="54">
         <v>3690</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="35" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H16" s="74" t="s">
         <v>7</v>
@@ -5631,7 +5608,7 @@
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H17" s="74">
         <v>1</v>
@@ -5650,10 +5627,10 @@
       <c r="E18" s="65"/>
       <c r="F18" s="5"/>
       <c r="G18" s="35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H18" s="74" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="I18" s="73">
         <v>45601</v>
@@ -5663,18 +5640,18 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
+      <c r="B19" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="5"/>
       <c r="G19" s="35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H19" s="74" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I19" s="73">
         <v>45630</v>
@@ -5688,20 +5665,20 @@
         <v>7</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="35" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="H20" s="74" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="I20" s="73">
         <v>45663</v>
@@ -5712,10 +5689,10 @@
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="35" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="D21" s="73">
         <v>45698</v>
@@ -5731,17 +5708,11 @@
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="74">
-        <v>1</v>
-      </c>
-      <c r="D22" s="73">
-        <v>45699</v>
-      </c>
-      <c r="E22" s="55">
-        <v>4750</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C22" s="74"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="5"/>
       <c r="G22" s="35"/>
       <c r="H22" s="55"/>
@@ -5750,17 +5721,11 @@
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="73">
-        <v>45699</v>
-      </c>
-      <c r="E23" s="55">
-        <v>2600</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C23" s="74"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="55"/>
       <c r="F23" s="5"/>
       <c r="G23" s="35"/>
       <c r="H23" s="55"/>
@@ -5768,10 +5733,10 @@
       <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="65"/>
       <c r="F24" s="5"/>
       <c r="G24" s="35"/>
       <c r="H24" s="55"/>
@@ -5779,10 +5744,12 @@
       <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="35"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
+      <c r="B25" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
       <c r="F25" s="5"/>
       <c r="G25" s="36" t="s">
         <v>9</v>
@@ -5795,10 +5762,18 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="35"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
+      <c r="B26" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>70</v>
+      </c>
       <c r="F26" s="5"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
@@ -5806,10 +5781,18 @@
       <c r="J26" s="37"/>
     </row>
     <row r="27" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
+      <c r="B27" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="73">
+        <v>45706</v>
+      </c>
+      <c r="E27" s="55">
+        <v>2600</v>
+      </c>
       <c r="F27" s="5"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
@@ -5818,396 +5801,391 @@
     </row>
     <row r="28" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="65"/>
+      <c r="B28" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55">
+        <f>Seguro[[#This Row],[Parcela]]-Seguro[[#This Row],[Data de pagamento]]</f>
+        <v>0</v>
+      </c>
       <c r="F28" s="39"/>
-      <c r="G28" s="89" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
+      <c r="G28" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
     </row>
     <row r="29" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
+      <c r="B29" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55">
+        <f>Seguro[[#This Row],[Parcela]]-Seguro[[#This Row],[Data de pagamento]]</f>
+        <v>0</v>
+      </c>
       <c r="F29" s="5"/>
       <c r="G29" s="41" t="s">
         <v>7</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="33" t="s">
-        <v>30</v>
+      <c r="B30" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55">
+        <f>Seguro[[#This Row],[Parcela]]-Seguro[[#This Row],[Data de pagamento]]</f>
+        <v>0</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
+        <v>59</v>
+      </c>
+      <c r="H30" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="I30" s="73">
+        <v>45700</v>
+      </c>
       <c r="J30" s="55">
-        <f>Empréstimos[[#This Row],[Estimado 
-custo]]-Empréstimos[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
+        <v>4750</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="57">
+        <f>SUBTOTAL(109,Seguro[Pago])</f>
+        <v>2600</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="57">
+        <f>SUBTOTAL(109,Empréstimos[Pago])</f>
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="43"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+    </row>
+    <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+    </row>
+    <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="H34" s="76"/>
+      <c r="I34" s="76"/>
+      <c r="J34" s="76"/>
+    </row>
+    <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55">
-        <f>Seguro[[#This Row],[Estimado
-custo]]-Seguro[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55">
-        <f>Empréstimos[[#This Row],[Estimado 
-custo]]-Empréstimos[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55">
-        <f>Seguro[[#This Row],[Estimado
-custo]]-Seguro[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55">
-        <f>Empréstimos[[#This Row],[Estimado 
-custo]]-Empréstimos[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55">
-        <f>Seguro[[#This Row],[Estimado
-custo]]-Seguro[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55">
-        <f>Empréstimos[[#This Row],[Estimado 
-custo]]-Empréstimos[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55">
-        <f>Seguro[[#This Row],[Estimado
-custo]]-Seguro[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55">
-        <f>Empréstimos[[#This Row],[Estimado 
-custo]]-Empréstimos[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="57">
-        <f>SUBTOTAL(109,Seguro[Diferença])</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55">
-        <f>Empréstimos[[#This Row],[Estimado 
-custo]]-Empréstimos[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="43"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="57">
-        <f>SUBTOTAL(109,Empréstimos[Diferença])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-    </row>
-    <row r="38" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-    </row>
-    <row r="39" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55">
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55">
         <f>Alimentação[[#This Row],[Estimado 
 custo]]-Alimentação[[#This Row],[Real 
 custo]]</f>
         <v>0</v>
       </c>
-      <c r="F39" s="39"/>
-      <c r="G39" s="89" t="s">
-        <v>35</v>
-      </c>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="90"/>
-    </row>
-    <row r="40" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55">
+      <c r="F35" s="5"/>
+      <c r="G35" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55">
         <f>Alimentação[[#This Row],[Estimado 
 custo]]-Alimentação[[#This Row],[Real 
 custo]]</f>
         <v>0</v>
       </c>
-      <c r="F40" s="5"/>
-      <c r="G40" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H40" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I40" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="35" t="s">
+      <c r="F36" s="5"/>
+      <c r="G36" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55">
+        <f>Impostos[[#This Row],[Estimado 
+custo]]-Impostos[[#This Row],[Real 
+custo]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55">
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55">
         <f>Alimentação[[#This Row],[Estimado 
 custo]]-Alimentação[[#This Row],[Real 
 custo]]</f>
         <v>0</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55">
+      <c r="F37" s="5"/>
+      <c r="G37" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55">
         <f>Impostos[[#This Row],[Estimado 
 custo]]-Impostos[[#This Row],[Real 
 custo]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="57">
+    <row r="38" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="57">
         <f>SUBTOTAL(109,Alimentação[Diferença])</f>
         <v>0</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55">
+      <c r="F38" s="5"/>
+      <c r="G38" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55">
         <f>Impostos[[#This Row],[Estimado 
 custo]]-Impostos[[#This Row],[Real 
 custo]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="45"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55">
+    <row r="39" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55">
         <f>Impostos[[#This Row],[Estimado 
 custo]]-Impostos[[#This Row],[Real 
 custo]]</f>
         <v>0</v>
       </c>
     </row>
+    <row r="40" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="57">
+        <f>SUBTOTAL(109,Impostos[Diferença])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37"/>
+    </row>
+    <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55">
+        <f>Animais_de_estimação[[#This Row],[Estimado 
+custo]]-Animais_de_estimação[[#This Row],[Real 
+custo]]</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+    </row>
+    <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55">
+        <f>Animais_de_estimação[[#This Row],[Estimado 
+custo]]-Animais_de_estimação[[#This Row],[Real 
+custo]]</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
+      <c r="B44" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55">
+        <f>Animais_de_estimação[[#This Row],[Estimado 
+custo]]-Animais_de_estimação[[#This Row],[Real 
+custo]]</f>
+        <v>0</v>
+      </c>
       <c r="F44" s="5"/>
       <c r="G44" s="35" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="H44" s="55"/>
       <c r="I44" s="55"/>
       <c r="J44" s="55">
-        <f>Impostos[[#This Row],[Estimado 
-custo]]-Impostos[[#This Row],[Real 
+        <f>Poupança[[#This Row],[Estimado 
+custo]]-Poupança[[#This Row],[Real 
 custo]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="33" t="s">
-        <v>30</v>
+      <c r="B45" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55">
+        <f>Animais_de_estimação[[#This Row],[Estimado 
+custo]]-Animais_de_estimação[[#This Row],[Real 
+custo]]</f>
+        <v>0</v>
       </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" s="59"/>
-      <c r="I45" s="59"/>
-      <c r="J45" s="57">
-        <f>SUBTOTAL(109,Impostos[Diferença])</f>
+      <c r="G45" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55">
+        <f>Poupança[[#This Row],[Estimado 
+custo]]-Poupança[[#This Row],[Real 
+custo]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="35" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C46" s="55"/>
       <c r="D46" s="55"/>
@@ -6218,185 +6196,195 @@
         <v>0</v>
       </c>
       <c r="F46" s="5"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
-    </row>
-    <row r="47" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
-      <c r="B47" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55">
-        <f>Animais_de_estimação[[#This Row],[Estimado 
-custo]]-Animais_de_estimação[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="90"/>
-    </row>
-    <row r="48" spans="1:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55">
-        <f>Animais_de_estimação[[#This Row],[Estimado 
-custo]]-Animais_de_estimação[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="5"/>
-      <c r="G48" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H48" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I48" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55">
-        <f>Animais_de_estimação[[#This Row],[Estimado 
-custo]]-Animais_de_estimação[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55">
+      <c r="G46" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55">
         <f>Poupança[[#This Row],[Estimado 
 custo]]-Poupança[[#This Row],[Real 
 custo]]</f>
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
+      <c r="B47" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61">
+        <f>SUBTOTAL(109,Animais_de_estimação[Diferença])</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59"/>
+      <c r="J47" s="57">
+        <f>SUBTOTAL(109,Poupança[Diferença])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="42"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="69"/>
+    </row>
+    <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+    </row>
     <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="55"/>
-      <c r="D50" s="55"/>
-      <c r="E50" s="55">
-        <f>Animais_de_estimação[[#This Row],[Estimado 
-custo]]-Animais_de_estimação[[#This Row],[Real 
+      <c r="B50" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="55">
+        <f>CuidadosPessoais[[#This Row],[Estimado 
+custo]]-CuidadosPessoais[[#This Row],[Real 
 custo]]</f>
         <v>0</v>
       </c>
-      <c r="F50" s="5"/>
-      <c r="G50" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55">
-        <f>Poupança[[#This Row],[Estimado 
-custo]]-Poupança[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61">
-        <f>SUBTOTAL(109,Animais_de_estimação[Diferença])</f>
-        <v>0</v>
-      </c>
       <c r="F51" s="5"/>
       <c r="G51" s="35" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="H51" s="55"/>
       <c r="I51" s="55"/>
       <c r="J51" s="55">
-        <f>Poupança[[#This Row],[Estimado 
-custo]]-Poupança[[#This Row],[Real 
+        <f>Presentes[[#This Row],[Estimado 
+custo]]-Presentes[[#This Row],[Real 
 custo]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="42"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
+      <c r="B52" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="55"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55">
+        <f>CuidadosPessoais[[#This Row],[Estimado 
+custo]]-CuidadosPessoais[[#This Row],[Real 
+custo]]</f>
+        <v>0</v>
+      </c>
       <c r="F52" s="5"/>
-      <c r="G52" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H52" s="59"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="57">
-        <f>SUBTOTAL(109,Poupança[Diferença])</f>
+      <c r="G52" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55">
+        <f>Presentes[[#This Row],[Estimado 
+custo]]-Presentes[[#This Row],[Real 
+custo]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
+      <c r="B53" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="55"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55">
+        <f>CuidadosPessoais[[#This Row],[Estimado 
+custo]]-CuidadosPessoais[[#This Row],[Real 
+custo]]</f>
+        <v>0</v>
+      </c>
       <c r="F53" s="5"/>
-      <c r="G53" s="46"/>
-      <c r="H53" s="69"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
+      <c r="G53" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55">
+        <f>Presentes[[#This Row],[Estimado 
+custo]]-Presentes[[#This Row],[Real 
+custo]]</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
-      <c r="B54" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" s="33" t="s">
-        <v>30</v>
+      <c r="B54" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55">
+        <f>CuidadosPessoais[[#This Row],[Estimado 
+custo]]-CuidadosPessoais[[#This Row],[Real 
+custo]]</f>
+        <v>0</v>
       </c>
       <c r="F54" s="39"/>
-      <c r="G54" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="90"/>
+      <c r="G54" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="57">
+        <f>SUBTOTAL(109,Presentes[Diferença])</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="35" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C55" s="55"/>
       <c r="D55" s="55"/>
@@ -6407,18 +6395,10 @@
         <v>0</v>
       </c>
       <c r="F55" s="5"/>
-      <c r="G55" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I55" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J55" s="33" t="s">
-        <v>30</v>
-      </c>
+      <c r="G55" s="38"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="65"/>
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="35" t="s">
@@ -6433,21 +6413,14 @@
         <v>0</v>
       </c>
       <c r="F56" s="5"/>
-      <c r="G56" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55">
-        <f>Presentes[[#This Row],[Estimado 
-custo]]-Presentes[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="G56" s="38"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="65"/>
     </row>
     <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="35" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C57" s="55"/>
       <c r="D57" s="55"/>
@@ -6458,309 +6431,226 @@
         <v>0</v>
       </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55">
-        <f>Presentes[[#This Row],[Estimado 
-custo]]-Presentes[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="G57" s="48"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="66"/>
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55">
-        <f>CuidadosPessoais[[#This Row],[Estimado 
-custo]]-CuidadosPessoais[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-      <c r="F58" s="5"/>
-      <c r="G58" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55">
-        <f>Presentes[[#This Row],[Estimado 
-custo]]-Presentes[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55">
-        <f>CuidadosPessoais[[#This Row],[Estimado 
-custo]]-CuidadosPessoais[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-      <c r="F59" s="5"/>
-      <c r="G59" s="36" t="s">
+      <c r="B58" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H59" s="60"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="57">
-        <f>SUBTOTAL(109,Presentes[Diferença])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55">
-        <f>CuidadosPessoais[[#This Row],[Estimado 
-custo]]-CuidadosPessoais[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-      <c r="F60" s="5"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="65"/>
-    </row>
-    <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55">
-        <f>CuidadosPessoais[[#This Row],[Estimado 
-custo]]-CuidadosPessoais[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-      <c r="F61" s="5"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="65"/>
-    </row>
-    <row r="62" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="57">
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="57">
         <f>SUBTOTAL(109,CuidadosPessoais[Diferença])</f>
         <v>0</v>
       </c>
-      <c r="F62" s="5"/>
-      <c r="G62" s="48"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-    </row>
-    <row r="63" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="87" t="s">
-        <v>46</v>
-      </c>
-      <c r="H63" s="88"/>
-      <c r="I63" s="88"/>
-      <c r="J63" s="88"/>
-    </row>
-    <row r="64" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F64" s="5"/>
-      <c r="G64" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="H64" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I64" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J64" s="33" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="65" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F65" s="5"/>
-      <c r="G65" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55">
+      <c r="F58" s="5"/>
+      <c r="G58" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="H58" s="78"/>
+      <c r="I58" s="78"/>
+      <c r="J58" s="78"/>
+    </row>
+    <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" s="33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="5"/>
+      <c r="G60" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H60" s="55"/>
+      <c r="I60" s="55"/>
+      <c r="J60" s="55">
         <f>Assessoria_jurídica[[#This Row],[Estimado 
 custo]]-Assessoria_jurídica[[#This Row],[Real 
 custo]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F66" s="5"/>
-      <c r="G66" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55">
+    <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="5"/>
+      <c r="G61" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55">
         <f>Assessoria_jurídica[[#This Row],[Estimado 
 custo]]-Assessoria_jurídica[[#This Row],[Real 
 custo]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F67" s="5"/>
-      <c r="G67" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="H67" s="55"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="55">
+    <row r="62" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="5"/>
+      <c r="G62" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55">
         <f>Assessoria_jurídica[[#This Row],[Estimado 
 custo]]-Assessoria_jurídica[[#This Row],[Real 
 custo]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F68" s="5"/>
-      <c r="G68" s="35" t="s">
+    <row r="63" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55">
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55">
         <f>Assessoria_jurídica[[#This Row],[Estimado 
 custo]]-Assessoria_jurídica[[#This Row],[Real 
 custo]]</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F69" s="5"/>
-      <c r="G69" s="36" t="s">
+    <row r="64" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="5"/>
+      <c r="G64" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="57">
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
+      <c r="J64" s="57">
         <f>SUBTOTAL(109,Assessoria_jurídica[Diferença])</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F70" s="5"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
-    </row>
-    <row r="71" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F71" s="5"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-    </row>
-    <row r="72" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F72" s="5"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-    </row>
-    <row r="73" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F73" s="5"/>
-      <c r="G73" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="93">
-        <f>SUBTOTAL(109,Moradia[Parcela],Transporte[Parcela],Seguro[Estimado
-custo],Alimentação[Estimado 
+    <row r="65" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="5"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="37"/>
+    </row>
+    <row r="66" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="5"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+    </row>
+    <row r="67" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="5"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="37"/>
+    </row>
+    <row r="68" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="5"/>
+      <c r="G68" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" s="88"/>
+      <c r="I68" s="88"/>
+      <c r="J68" s="83">
+        <f>SUBTOTAL(109,Moradia[Parcela],Transporte[Parcela],Seguro[Parcela],Alimentação[Estimado 
 custo],Animais_de_estimação[Estimado 
 custo],CuidadosPessoais[Estimado 
-custo],Entretenimento[Parcela],Empréstimos[Estimado 
-custo],Impostos[Estimado 
+custo],Entretenimento[Parcela],Empréstimos[Parcela],Impostos[Estimado 
 custo],Poupança[Estimado 
 custo],Presentes[Estimado 
 custo],Assessoria_jurídica[Estimado 
 custo])</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F74" s="5"/>
-      <c r="G74" s="77"/>
-      <c r="H74" s="77"/>
-      <c r="I74" s="77"/>
-      <c r="J74" s="93"/>
-    </row>
-    <row r="75" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F75" s="5"/>
-      <c r="G75" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="H75" s="95"/>
-      <c r="I75" s="95"/>
-      <c r="J75" s="94">
-        <f>SUBTOTAL(109,Moradia[Data de pagamento],Transporte[Data de pagamento],Seguro[Real 
-custo],Alimentação[Real 
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="5"/>
+      <c r="G69" s="88"/>
+      <c r="H69" s="88"/>
+      <c r="I69" s="88"/>
+      <c r="J69" s="83"/>
+    </row>
+    <row r="70" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F70" s="5"/>
+      <c r="G70" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="H70" s="85"/>
+      <c r="I70" s="85"/>
+      <c r="J70" s="84">
+        <f>SUBTOTAL(109,Moradia[Data de pagamento],Transporte[Data de pagamento],Seguro[Data de pagamento],Alimentação[Real 
 custo],Entretenimento[Data de pagamento],CuidadosPessoais[Real 
-custo],Entretenimento[Data de pagamento],Empréstimos[Real 
-custo],Impostos[Real 
+custo],Entretenimento[Data de pagamento],Empréstimos[Data de pagamento],Impostos[Real 
 custo],Poupança[Real 
 custo],Presentes[Real 
 custo],Animais_de_estimação[Real 
 custo])</f>
-        <v>593104</v>
-      </c>
+        <v>593112</v>
+      </c>
+    </row>
+    <row r="71" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="5"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="85"/>
+      <c r="J71" s="84"/>
+    </row>
+    <row r="72" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="5"/>
+      <c r="G72" s="81" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" s="81"/>
+      <c r="I72" s="81"/>
+      <c r="J72" s="82">
+        <f>J68-J70</f>
+        <v>-593110</v>
+      </c>
+    </row>
+    <row r="73" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="5"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="81"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="82"/>
+    </row>
+    <row r="74" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="5"/>
     </row>
     <row r="76" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F76" s="5"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="95"/>
-      <c r="I76" s="95"/>
-      <c r="J76" s="94"/>
     </row>
     <row r="77" spans="6:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F77" s="5"/>
-      <c r="G77" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="H77" s="91"/>
-      <c r="I77" s="91"/>
-      <c r="J77" s="92">
-        <f>J73-J75</f>
-        <v>-593101</v>
-      </c>
     </row>
     <row r="78" spans="6:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F78" s="5"/>
-      <c r="G78" s="91"/>
-      <c r="H78" s="91"/>
-      <c r="I78" s="91"/>
-      <c r="J78" s="92"/>
     </row>
     <row r="79" spans="6:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F79" s="5"/>
@@ -6773,19 +6663,9 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="G63:J63"/>
-    <mergeCell ref="G77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="J73:J74"/>
-    <mergeCell ref="J75:J76"/>
-    <mergeCell ref="G75:I76"/>
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G73:I74"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G68:I69"/>
     <mergeCell ref="E4:G5"/>
     <mergeCell ref="E6:G7"/>
     <mergeCell ref="E8:G9"/>
@@ -6795,11 +6675,22 @@
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B25:E25"/>
     <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="G72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="G70:I71"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="G58:J58"/>
   </mergeCells>
+  <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="12">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Crie um Orçamento pessoal mensal nesta planilha. Instruções úteis sobre como usar esta planilha estão nas células desta coluna. Use a seta para baixo para começar." sqref="A1" xr:uid="{535C1FB4-69DA-478A-9C24-451D9BD5B386}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="O título desta planilha está na célula B2. A próxima instrução está na célula A4." sqref="A2" xr:uid="{B4FABB03-3192-4386-8C0C-14BCEBFC58A9}"/>
@@ -6824,7 +6715,7 @@
     <brk id="44" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="J30:J35 J41:J44 E31:E34 E39:E41 J49:J51 J56:J58 J74 E55 J76" emptyCellReference="1"/>
+    <ignoredError sqref="J36:J39 E28:E30 E35:E37 J44:J46 J51:J53 J69 E51 J71" emptyCellReference="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
   <tableParts count="12">
@@ -6845,6 +6736,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7144,36 +7064,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08AC7FD9-EBCF-4CC4-BE1C-34B80F7E8353}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1766A65-F7C1-4A05-AEB7-FE8822B53FAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48771426-2A7A-4B36-9D43-BE262652591C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7192,24 +7103,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1766A65-F7C1-4A05-AEB7-FE8822B53FAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08AC7FD9-EBCF-4CC4-BE1C-34B80F7E8353}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Análise.atualizado.xlsx
+++ b/Análise.atualizado.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E649EEE-ACCC-4A30-9EE5-03655A7B7694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC20E0C-AB9F-4CC0-AE2C-92536D05BA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>Sobre este modelo</t>
   </si>
@@ -62,104 +62,6 @@
   </si>
   <si>
     <t>Subtotal</t>
-  </si>
-  <si>
-    <t>Comida</t>
-  </si>
-  <si>
-    <t>Supermercado</t>
-  </si>
-  <si>
-    <t>Jantar fora</t>
-  </si>
-  <si>
-    <t>Animais de estimação</t>
-  </si>
-  <si>
-    <t>Médico</t>
-  </si>
-  <si>
-    <t>Banho e tosa</t>
-  </si>
-  <si>
-    <t>Brinquedos</t>
-  </si>
-  <si>
-    <t>Cuidados pessoais</t>
-  </si>
-  <si>
-    <t>Cabelo/unhas</t>
-  </si>
-  <si>
-    <t>Vestuário</t>
-  </si>
-  <si>
-    <t>Lavagem a seco</t>
-  </si>
-  <si>
-    <t>Academia</t>
-  </si>
-  <si>
-    <t>Impostos ou taxas de organização</t>
-  </si>
-  <si>
-    <t>Estimado 
-custo</t>
-  </si>
-  <si>
-    <t>Real 
-custo</t>
-  </si>
-  <si>
-    <t>Diferença</t>
-  </si>
-  <si>
-    <t>Impostos</t>
-  </si>
-  <si>
-    <t>Federal</t>
-  </si>
-  <si>
-    <t>Estadual</t>
-  </si>
-  <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>Poupanças ou investimentos</t>
-  </si>
-  <si>
-    <t>Aposentadoria</t>
-  </si>
-  <si>
-    <t>Investimentos</t>
-  </si>
-  <si>
-    <t>Presentes e doações</t>
-  </si>
-  <si>
-    <t>Instituição beneficente 1</t>
-  </si>
-  <si>
-    <t>Instituição beneficente 2</t>
-  </si>
-  <si>
-    <t>Instituição beneficente 3</t>
-  </si>
-  <si>
-    <t>Assessoria jurídica</t>
-  </si>
-  <si>
-    <t>ASSESSORIA JURÍDICA</t>
-  </si>
-  <si>
-    <t>Advogado</t>
-  </si>
-  <si>
-    <t>Pensão alimentícia</t>
-  </si>
-  <si>
-    <t>Pagamentos em garantia ou julgamento</t>
   </si>
   <si>
     <t>Custo total previsto</t>
@@ -268,13 +170,16 @@
     <t>Decoração</t>
   </si>
   <si>
-    <t>~,</t>
-  </si>
-  <si>
     <t>Entrada (20%)</t>
   </si>
   <si>
     <t>Entrada (10%)</t>
+  </si>
+  <si>
+    <t>Iluminação</t>
+  </si>
+  <si>
+    <t>Valor: 4150,00</t>
   </si>
 </sst>
 </file>
@@ -764,7 +669,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -883,18 +788,9 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="8" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -952,9 +848,6 @@
     <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -970,74 +863,74 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="11"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="33" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="11"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="33" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1048,7 +941,98 @@
     <cellStyle name="Título 2" xfId="2" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 3" xfId="3" builtinId="18" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="173">
+  <dxfs count="94">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1087,7 +1071,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
+        <color theme="1" tint="0.34998626667073579"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1113,7 +1097,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
+        <color theme="1" tint="0.34998626667073579"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1251,1320 +1235,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.14993743705557422"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14990691854609822"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14990691854609822"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2679,590 +1349,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14993743705557422"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14993743705557422"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.24994659260841701"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14990691854609822"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14990691854609822"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3746,6 +1832,32 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3772,19 +1884,45 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3795,23 +1933,74 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -4668,18 +2857,18 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Catálogo de endereços" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="172"/>
-      <tableStyleElement type="headerRow" dxfId="171"/>
-      <tableStyleElement type="totalRow" dxfId="170"/>
+      <tableStyleElement type="wholeTable" dxfId="93"/>
+      <tableStyleElement type="headerRow" dxfId="92"/>
+      <tableStyleElement type="totalRow" dxfId="91"/>
     </tableStyle>
     <tableStyle name="Orçamento pessoal mensal" pivot="0" count="7" xr9:uid="{DF2684C2-C435-47FA-9646-E632C3AE8948}">
-      <tableStyleElement type="wholeTable" dxfId="169"/>
-      <tableStyleElement type="headerRow" dxfId="168"/>
-      <tableStyleElement type="totalRow" dxfId="167"/>
-      <tableStyleElement type="firstColumn" dxfId="166"/>
-      <tableStyleElement type="lastColumn" dxfId="165"/>
-      <tableStyleElement type="firstRowStripe" dxfId="164"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="163"/>
+      <tableStyleElement type="wholeTable" dxfId="90"/>
+      <tableStyleElement type="headerRow" dxfId="89"/>
+      <tableStyleElement type="totalRow" dxfId="88"/>
+      <tableStyleElement type="firstColumn" dxfId="87"/>
+      <tableStyleElement type="lastColumn" dxfId="86"/>
+      <tableStyleElement type="firstRowStripe" dxfId="85"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="84"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4810,12 +2999,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Habitação" displayName="Moradia" ref="B15:E17" totalsRowCount="1" headerRowDxfId="162" dataDxfId="160" totalsRowDxfId="158" headerRowBorderDxfId="161" tableBorderDxfId="159" totalsRowBorderDxfId="157">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Habitação" displayName="Moradia" ref="B15:E17" totalsRowCount="1" headerRowDxfId="83" dataDxfId="81" totalsRowDxfId="79" headerRowBorderDxfId="82" tableBorderDxfId="80" totalsRowBorderDxfId="78">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="156" totalsRowDxfId="155"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parcela" dataDxfId="154" totalsRowDxfId="153"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Data de pagamento" dataDxfId="152" totalsRowDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Valor" totalsRowFunction="sum" dataDxfId="150" totalsRowDxfId="149">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="77" totalsRowDxfId="76"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parcela" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Data de pagamento" dataDxfId="73" totalsRowDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Valor" totalsRowFunction="sum" dataDxfId="71" totalsRowDxfId="70">
       <calculatedColumnFormula>Moradia[[#This Row],[Parcela]]-Moradia[[#This Row],[Data de pagamento]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4828,77 +3017,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Animais de estimação" displayName="Animais_de_estimação" ref="B41:E47" totalsRowCount="1" headerRowDxfId="46" dataDxfId="44" totalsRowDxfId="43" headerRowBorderDxfId="45" totalsRowBorderDxfId="42">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Estimado _x000a_custo" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Real _x000a_custo" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="34">
-      <calculatedColumnFormula>Animais_de_estimação[[#This Row],[Estimado 
-custo]]-Animais_de_estimação[[#This Row],[Real 
-custo]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="Catálogo de endereços" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Insira os Custos reais e projetados com animais de estimação nesta tabela. A diferença é calculada automaticamente"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Assessoria jurídica" displayName="Assessoria_jurídica" ref="G59:J64" totalsRowCount="1" headerRowDxfId="33" dataDxfId="31" totalsRowDxfId="30" headerRowBorderDxfId="32" totalsRowBorderDxfId="29">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="ASSESSORIA JURÍDICA" totalsRowLabel="Subtotal" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Estimado _x000a_custo" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="Real _x000a_custo" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="21">
-      <calculatedColumnFormula>Assessoria_jurídica[[#This Row],[Estimado 
-custo]]-Assessoria_jurídica[[#This Row],[Real 
-custo]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="Catálogo de endereços" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Insira os Custos reais e projetados com assessoria jurídica nesta tabela. A diferença é calculada automaticamente"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="CuidadosPessoais" displayName="CuidadosPessoais" ref="B50:E58" totalsRowCount="1" headerRowDxfId="20" dataDxfId="18" totalsRowDxfId="17" headerRowBorderDxfId="19" totalsRowBorderDxfId="16">
-  <autoFilter ref="B50:E57" xr:uid="{00000000-0009-0000-0100-00000C000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Estimado _x000a_custo" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="Real _x000a_custo" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="8">
-      <calculatedColumnFormula>CuidadosPessoais[[#This Row],[Estimado 
-custo]]-CuidadosPessoais[[#This Row],[Real 
-custo]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="Catálogo de endereços" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Insira os Custos reais e projetados com cuidados pessoais nesta tabela. A diferença é calculada automaticamente"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Entretenimento" displayName="Entretenimento" ref="G15:J25" totalsRowCount="1" headerRowDxfId="148" dataDxfId="146" totalsRowDxfId="144" headerRowBorderDxfId="147" tableBorderDxfId="145" totalsRowBorderDxfId="143" headerRowCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Entretenimento" displayName="Entretenimento" ref="G15:J25" totalsRowCount="1" headerRowDxfId="69" dataDxfId="67" totalsRowDxfId="65" headerRowBorderDxfId="68" tableBorderDxfId="66" totalsRowBorderDxfId="64" headerRowCellStyle="Normal">
   <autoFilter ref="G15:J24" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4906,10 +3026,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="142" totalsRowDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Parcela" dataDxfId="140" totalsRowDxfId="139"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Data de pagamento" dataDxfId="138" totalsRowDxfId="137"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Valor" totalsRowFunction="sum" dataDxfId="136" totalsRowDxfId="135">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Parcela" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Data de pagamento" dataDxfId="59" totalsRowDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Valor" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56">
       <calculatedColumnFormula>Entretenimento[[#This Row],[Parcela]]-Entretenimento[[#This Row],[Data de pagamento]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4923,7 +3043,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Empréstimos" displayName="Empréstimos" ref="G29:J31" totalsRowCount="1" headerRowDxfId="134" dataDxfId="132" totalsRowDxfId="130" headerRowBorderDxfId="133" tableBorderDxfId="131" totalsRowBorderDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Empréstimos" displayName="Empréstimos" ref="G29:J31" totalsRowCount="1" headerRowDxfId="55" dataDxfId="53" totalsRowDxfId="51" headerRowBorderDxfId="54" tableBorderDxfId="52" totalsRowBorderDxfId="50">
   <autoFilter ref="G29:J30" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4931,10 +3051,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="128" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Parcela" dataDxfId="127" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Data de pagamento" dataDxfId="126" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Pago" totalsRowFunction="sum" dataDxfId="125" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Parcela" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Data de pagamento" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Pago" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42">
       <calculatedColumnFormula>Empréstimos[[#This Row],[Parcela]]-Empréstimos[[#This Row],[Data de pagamento]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4948,7 +3068,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Transporte" displayName="Transporte" ref="B20:E23" headerRowDxfId="124" dataDxfId="122" totalsRowDxfId="120" headerRowBorderDxfId="123" tableBorderDxfId="121" totalsRowBorderDxfId="119">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Transporte" displayName="Transporte" ref="B20:E23" headerRowDxfId="41" dataDxfId="39" totalsRowDxfId="37" headerRowBorderDxfId="40" tableBorderDxfId="38" totalsRowBorderDxfId="36">
   <autoFilter ref="B20:E23" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4956,10 +3076,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="0" dataDxfId="118" totalsRowDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Parcela" dataDxfId="116" totalsRowDxfId="115"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Data de pagamento" dataDxfId="114" totalsRowDxfId="113"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Pago" dataDxfId="112" totalsRowDxfId="111">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="0" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Parcela" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Data de pagamento" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Pago" dataDxfId="29" totalsRowDxfId="28">
       <calculatedColumnFormula>Transporte[[#This Row],[Parcela]]-Transporte[[#This Row],[Data de pagamento]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4973,7 +3093,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Seguro" displayName="Seguro" ref="B26:E31" totalsRowCount="1" headerRowDxfId="110" dataDxfId="108" totalsRowDxfId="106" headerRowBorderDxfId="109" tableBorderDxfId="107" totalsRowBorderDxfId="105">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Seguro" displayName="Seguro" ref="B26:E31" totalsRowCount="1" headerRowDxfId="27" dataDxfId="25" totalsRowDxfId="23" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="22">
   <autoFilter ref="B26:E30" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -4981,10 +3101,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="104" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Parcela" dataDxfId="103" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Data de pagamento" dataDxfId="102" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Pago" totalsRowFunction="sum" dataDxfId="101" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="21" totalsRowDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Parcela" dataDxfId="20" totalsRowDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Data de pagamento" dataDxfId="19" totalsRowDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Pago" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="4">
       <calculatedColumnFormula>Seguro[[#This Row],[Parcela]]-Seguro[[#This Row],[Data de pagamento]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4998,108 +3118,23 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Impostos" displayName="Impostos" ref="G35:J40" totalsRowCount="1" headerRowDxfId="100" dataDxfId="98" totalsRowDxfId="96" headerRowBorderDxfId="99" tableBorderDxfId="97" totalsRowBorderDxfId="95">
-  <autoFilter ref="G35:J39" xr:uid="{00000000-0009-0000-0100-000006000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Alimentação" displayName="Alimentação" ref="B34:E35" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" totalsRowDxfId="13" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+  <autoFilter ref="B34:E35" xr:uid="{00000000-0009-0000-0100-000008000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="94" totalsRowDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Estimado _x000a_custo" dataDxfId="92" totalsRowDxfId="91"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Real _x000a_custo" dataDxfId="90" totalsRowDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="88" totalsRowDxfId="87">
-      <calculatedColumnFormula>Impostos[[#This Row],[Estimado 
-custo]]-Impostos[[#This Row],[Real 
-custo]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="Catálogo de endereços" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Insira os Custos reais e projetados de impostos nesta tabela. A diferença é calculada automaticamente"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Poupança" displayName="Poupança" ref="G43:J47" totalsRowCount="1" headerRowDxfId="86" dataDxfId="84" totalsRowDxfId="83" headerRowBorderDxfId="85" totalsRowBorderDxfId="82">
-  <autoFilter ref="G43:J46" xr:uid="{00000000-0009-0000-0100-000007000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Estimado _x000a_custo" dataDxfId="79" totalsRowDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Real _x000a_custo" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="75" totalsRowDxfId="74">
-      <calculatedColumnFormula>Poupança[[#This Row],[Estimado 
-custo]]-Poupança[[#This Row],[Real 
-custo]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="Catálogo de endereços" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Insira os Custos reais e projetados da poupança ou investimentos nesta tabela. A diferença é calculada automaticamente"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Alimentação" displayName="Alimentação" ref="B34:E38" totalsRowCount="1" headerRowDxfId="73" dataDxfId="71" totalsRowDxfId="69" headerRowBorderDxfId="72" tableBorderDxfId="70" totalsRowBorderDxfId="68">
-  <autoFilter ref="B34:E37" xr:uid="{00000000-0009-0000-0100-000008000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="0" totalsRowLabel="~," dataDxfId="67" totalsRowDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Estimado _x000a_custo" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Real _x000a_custo" dataDxfId="63" totalsRowDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="61" totalsRowDxfId="60">
-      <calculatedColumnFormula>Alimentação[[#This Row],[Estimado 
-custo]]-Alimentação[[#This Row],[Real 
-custo]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="0" dataDxfId="3" totalsRowDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Parcela" dataDxfId="2" totalsRowDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Data de pagamento" dataDxfId="0" totalsRowDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Pago" dataDxfId="1" totalsRowDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Catálogo de endereços" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
       <x14:table altTextSummary="Insira os Custos reais e projetados com alimentação nesta tabela. A diferença é calculada automaticamente"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Presentes" displayName="Presentes" ref="G50:J54" totalsRowCount="1" headerRowDxfId="59" dataDxfId="57" totalsRowDxfId="56" headerRowBorderDxfId="58" totalsRowBorderDxfId="55">
-  <autoFilter ref="G50:J53" xr:uid="{00000000-0009-0000-0100-000009000000}">
-    <filterColumn colId="0" hiddenButton="1"/>
-    <filterColumn colId="1" hiddenButton="1"/>
-    <filterColumn colId="2" hiddenButton="1"/>
-    <filterColumn colId="3" hiddenButton="1"/>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Estimado _x000a_custo" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Real _x000a_custo" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Diferença" totalsRowFunction="sum" dataDxfId="48" totalsRowDxfId="47">
-      <calculatedColumnFormula>Presentes[[#This Row],[Estimado 
-custo]]-Presentes[[#This Row],[Real 
-custo]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="Catálogo de endereços" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Insira os Custos reais e projetados com presentes e doações nesta tabela. A diferença é calculada automaticamente"/>
     </ext>
   </extLst>
 </table>
@@ -5376,8 +3411,8 @@
   </sheetPr>
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33:J33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5396,61 +3431,61 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
-      <c r="B2" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="B2" s="71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="93"/>
+      <c r="B4" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="78"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="89" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="95">
+      <c r="E4" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="80">
         <f>C7</f>
         <v>60000</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="50">
+        <v>31</v>
+      </c>
+      <c r="C5" s="47">
         <v>30000</v>
       </c>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="95"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="51">
+        <v>32</v>
+      </c>
+      <c r="C6" s="48">
         <v>30000</v>
       </c>
-      <c r="E6" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="96">
+      <c r="E6" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="81">
         <f>SUM(Moradia[[#Totals],[Valor]])</f>
         <v>3690</v>
       </c>
@@ -5458,85 +3493,85 @@
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="52">
+        <v>33</v>
+      </c>
+      <c r="C7" s="49">
         <f>SUM(C5:C6)</f>
         <v>60000</v>
       </c>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="96"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="97">
+      <c r="E8" s="76" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="82">
         <f>H4-H6</f>
         <v>56310</v>
       </c>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="92" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="94"/>
+      <c r="B9" s="77" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="79"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="97"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="82"/>
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="51">
+        <v>27</v>
+      </c>
+      <c r="C10" s="48">
         <v>0</v>
       </c>
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="53">
+        <v>28</v>
+      </c>
+      <c r="C11" s="50">
         <v>400</v>
       </c>
       <c r="E11" s="15"/>
-      <c r="H11" s="63"/>
+      <c r="H11" s="60"/>
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="52">
+        <v>29</v>
+      </c>
+      <c r="C12" s="49">
         <f>SUM(C10:C11)</f>
         <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="20"/>
-      <c r="C13" s="62"/>
+      <c r="C13" s="59"/>
     </row>
     <row r="14" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="22"/>
       <c r="B14" s="27" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="G14" s="26" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
@@ -5547,116 +3582,116 @@
         <v>7</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="31" t="s">
         <v>7</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I15" s="29" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J15" s="30" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="71">
+        <v>15</v>
+      </c>
+      <c r="C16" s="67">
         <v>1</v>
       </c>
-      <c r="D16" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="54">
+      <c r="D16" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="51">
         <v>3690</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="73">
+      <c r="I16" s="69">
         <v>45538</v>
       </c>
-      <c r="J16" s="55">
+      <c r="J16" s="52">
         <v>1225</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="58" t="s">
+      <c r="B17" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="54">
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="51">
         <f>SUBTOTAL(109,Moradia[Valor])</f>
         <v>3690</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="74">
+        <v>22</v>
+      </c>
+      <c r="H17" s="70">
         <v>1</v>
       </c>
-      <c r="I17" s="73">
+      <c r="I17" s="69">
         <v>45572</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="52">
         <v>367.5</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="38"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
       <c r="F18" s="5"/>
       <c r="G18" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="73">
+        <v>22</v>
+      </c>
+      <c r="H18" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="69">
         <v>45601</v>
       </c>
-      <c r="J18" s="55">
+      <c r="J18" s="52">
         <v>367.5</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
+      <c r="B19" s="83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
       <c r="F19" s="5"/>
       <c r="G19" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="I19" s="73">
+        <v>22</v>
+      </c>
+      <c r="H19" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="69">
         <v>45630</v>
       </c>
-      <c r="J19" s="55">
+      <c r="J19" s="52">
         <v>367.5</v>
       </c>
     </row>
@@ -5665,98 +3700,98 @@
         <v>7</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="73">
+        <v>22</v>
+      </c>
+      <c r="H20" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="69">
         <v>45663</v>
       </c>
-      <c r="J20" s="55">
+      <c r="J20" s="52">
         <v>367.5</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="69">
         <v>45698</v>
       </c>
-      <c r="E21" s="55">
+      <c r="E21" s="52">
         <v>1937.6</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="35"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
     </row>
     <row r="22" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="55"/>
+        <v>22</v>
+      </c>
+      <c r="C22" s="70"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="52"/>
       <c r="F22" s="5"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="55"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="70"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="5"/>
       <c r="G23" s="35"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="42"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="65"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="5"/>
       <c r="G24" s="35"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="75" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
+      <c r="B25" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
       <c r="F25" s="5"/>
       <c r="G25" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="57">
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="54">
         <f>SUBTOTAL(109,Entretenimento[Valor])</f>
         <v>2695</v>
       </c>
@@ -5766,13 +3801,13 @@
         <v>7</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D26" s="32" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F26" s="5"/>
       <c r="G26" s="37"/>
@@ -5782,15 +3817,15 @@
     </row>
     <row r="27" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="73">
+      <c r="D27" s="69">
         <v>45706</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="52">
         <v>2600</v>
       </c>
       <c r="F27" s="5"/>
@@ -5802,29 +3837,29 @@
     <row r="28" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55">
+        <v>22</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52">
         <f>Seguro[[#This Row],[Parcela]]-Seguro[[#This Row],[Data de pagamento]]</f>
         <v>0</v>
       </c>
       <c r="F28" s="39"/>
-      <c r="G28" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
+      <c r="G28" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
     </row>
     <row r="29" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55">
+        <v>22</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52">
         <f>Seguro[[#This Row],[Parcela]]-Seguro[[#This Row],[Data de pagamento]]</f>
         <v>0</v>
       </c>
@@ -5833,36 +3868,36 @@
         <v>7</v>
       </c>
       <c r="H29" s="32" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55">
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52">
         <f>Seguro[[#This Row],[Parcela]]-Seguro[[#This Row],[Data de pagamento]]</f>
         <v>0</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="I30" s="73">
+      <c r="I30" s="69">
         <v>45700</v>
       </c>
-      <c r="J30" s="55">
+      <c r="J30" s="52">
         <v>4750</v>
       </c>
     </row>
@@ -5870,9 +3905,9 @@
       <c r="B31" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="57">
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="54">
         <f>SUBTOTAL(109,Seguro[Pago])</f>
         <v>2600</v>
       </c>
@@ -5880,640 +3915,289 @@
       <c r="G31" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="57">
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="54">
         <f>SUBTOTAL(109,Empréstimos[Pago])</f>
         <v>4750</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="43"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="55"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="5"/>
       <c r="G32" s="38"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="64"/>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
+      <c r="B33" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="72"/>
     </row>
     <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="44" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D34" s="32" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="69">
+        <v>45726</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
+    </row>
+    <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="45"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="73"/>
+      <c r="I36" s="73"/>
+      <c r="J36" s="89" t="e">
+        <f>SUBTOTAL(109,Moradia[Parcela],Transporte[Parcela],Seguro[Parcela],Alimentação[Parcela],#REF!,#REF!,Entretenimento[Parcela],Empréstimos[Parcela],#REF!,#REF!,#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="83"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="I37" s="73"/>
+      <c r="J37" s="89"/>
+    </row>
+    <row r="38" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="46"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55">
-        <f>Alimentação[[#This Row],[Estimado 
-custo]]-Alimentação[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H35" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55">
-        <f>Alimentação[[#This Row],[Estimado 
-custo]]-Alimentação[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55">
-        <f>Impostos[[#This Row],[Estimado 
-custo]]-Impostos[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55">
-        <f>Alimentação[[#This Row],[Estimado 
-custo]]-Alimentação[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55">
-        <f>Impostos[[#This Row],[Estimado 
-custo]]-Impostos[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="57">
-        <f>SUBTOTAL(109,Alimentação[Diferença])</f>
-        <v>0</v>
-      </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55">
-        <f>Impostos[[#This Row],[Estimado 
-custo]]-Impostos[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
+      <c r="H38" s="91"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="90" t="e">
+        <f>SUBTOTAL(109,Moradia[Data de pagamento],Transporte[Data de pagamento],Seguro[Data de pagamento],Alimentação[Data de pagamento],Entretenimento[Data de pagamento],#REF!,Entretenimento[Data de pagamento],Empréstimos[Data de pagamento],#REF!,#REF!,#REF!,#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="39"/>
-      <c r="G39" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55">
-        <f>Impostos[[#This Row],[Estimado 
-custo]]-Impostos[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="G39" s="91"/>
+      <c r="H39" s="91"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="90"/>
     </row>
     <row r="40" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="77" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="78"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="57">
-        <f>SUBTOTAL(109,Impostos[Diferença])</f>
-        <v>0</v>
+      <c r="G40" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="88" t="e">
+        <f>J36-J38</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>25</v>
-      </c>
+      <c r="B41" s="35"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="88"/>
     </row>
     <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55">
-        <f>Animais_de_estimação[[#This Row],[Estimado 
-custo]]-Animais_de_estimação[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
     </row>
     <row r="43" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55">
-        <f>Animais_de_estimação[[#This Row],[Estimado 
-custo]]-Animais_de_estimação[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="B43" s="35"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="33" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="44" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55">
-        <f>Animais_de_estimação[[#This Row],[Estimado 
-custo]]-Animais_de_estimação[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="B44" s="36"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55">
-        <f>Poupança[[#This Row],[Estimado 
-custo]]-Poupança[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="45" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55">
-        <f>Animais_de_estimação[[#This Row],[Estimado 
-custo]]-Animais_de_estimação[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="B45" s="42"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55">
-        <f>Poupança[[#This Row],[Estimado 
-custo]]-Poupança[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="46" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55">
-        <f>Animais_de_estimação[[#This Row],[Estimado 
-custo]]-Animais_de_estimação[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="B46" s="92"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55">
-        <f>Poupança[[#This Row],[Estimado 
-custo]]-Poupança[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="47" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
-      <c r="B47" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61">
-        <f>SUBTOTAL(109,Animais_de_estimação[Diferença])</f>
-        <v>0</v>
-      </c>
+      <c r="B47" s="31"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="39"/>
-      <c r="G47" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="59"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="57">
-        <f>SUBTOTAL(109,Poupança[Diferença])</f>
-        <v>0</v>
-      </c>
+      <c r="G47"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
     </row>
     <row r="48" spans="1:10" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="42"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="69"/>
     </row>
     <row r="49" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="H49" s="76"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
     </row>
     <row r="50" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="E50" s="33" t="s">
-        <v>25</v>
-      </c>
+      <c r="B50" s="35"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" s="33" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="51" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55">
-        <f>CuidadosPessoais[[#This Row],[Estimado 
-custo]]-CuidadosPessoais[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="B51" s="35"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="H51" s="55"/>
-      <c r="I51" s="55"/>
-      <c r="J51" s="55">
-        <f>Presentes[[#This Row],[Estimado 
-custo]]-Presentes[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="52" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55">
-        <f>CuidadosPessoais[[#This Row],[Estimado 
-custo]]-CuidadosPessoais[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="B52" s="35"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H52" s="55"/>
-      <c r="I52" s="55"/>
-      <c r="J52" s="55">
-        <f>Presentes[[#This Row],[Estimado 
-custo]]-Presentes[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="53" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55">
-        <f>CuidadosPessoais[[#This Row],[Estimado 
-custo]]-CuidadosPessoais[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="B53" s="35"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="55">
-        <f>Presentes[[#This Row],[Estimado 
-custo]]-Presentes[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="54" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
-      <c r="B54" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="55"/>
-      <c r="D54" s="55"/>
-      <c r="E54" s="55">
-        <f>CuidadosPessoais[[#This Row],[Estimado 
-custo]]-CuidadosPessoais[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="B54" s="35"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
       <c r="F54" s="39"/>
-      <c r="G54" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="57">
-        <f>SUBTOTAL(109,Presentes[Diferença])</f>
-        <v>0</v>
-      </c>
+      <c r="G54"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
     </row>
     <row r="55" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="55"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55">
-        <f>CuidadosPessoais[[#This Row],[Estimado 
-custo]]-CuidadosPessoais[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="B55" s="36"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="54"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="65"/>
     </row>
     <row r="56" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55">
-        <f>CuidadosPessoais[[#This Row],[Estimado 
-custo]]-CuidadosPessoais[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="65"/>
     </row>
     <row r="57" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55">
-        <f>CuidadosPessoais[[#This Row],[Estimado 
-custo]]-CuidadosPessoais[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
     </row>
     <row r="58" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="57">
-        <f>SUBTOTAL(109,CuidadosPessoais[Diferença])</f>
-        <v>0</v>
-      </c>
       <c r="F58" s="5"/>
-      <c r="G58" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="H58" s="78"/>
-      <c r="I58" s="78"/>
-      <c r="J58" s="78"/>
     </row>
     <row r="59" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="H59" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I59" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" s="33" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="60" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F60" s="5"/>
-      <c r="G60" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="H60" s="55"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55">
-        <f>Assessoria_jurídica[[#This Row],[Estimado 
-custo]]-Assessoria_jurídica[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="61" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F61" s="5"/>
-      <c r="G61" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55">
-        <f>Assessoria_jurídica[[#This Row],[Estimado 
-custo]]-Assessoria_jurídica[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="62" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F62" s="5"/>
-      <c r="G62" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55">
-        <f>Assessoria_jurídica[[#This Row],[Estimado 
-custo]]-Assessoria_jurídica[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="63" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
@@ -6522,150 +4206,77 @@
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" s="39"/>
-      <c r="G63" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55">
-        <f>Assessoria_jurídica[[#This Row],[Estimado 
-custo]]-Assessoria_jurídica[[#This Row],[Real 
-custo]]</f>
-        <v>0</v>
-      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
     </row>
     <row r="64" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F64" s="5"/>
-      <c r="G64" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="57">
-        <f>SUBTOTAL(109,Assessoria_jurídica[Diferença])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="5"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-    </row>
-    <row r="66" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="5"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-    </row>
-    <row r="67" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F67" s="5"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
-    </row>
-    <row r="68" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F68" s="5"/>
-      <c r="G68" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="H68" s="88"/>
-      <c r="I68" s="88"/>
-      <c r="J68" s="83">
-        <f>SUBTOTAL(109,Moradia[Parcela],Transporte[Parcela],Seguro[Parcela],Alimentação[Estimado 
-custo],Animais_de_estimação[Estimado 
-custo],CuidadosPessoais[Estimado 
-custo],Entretenimento[Parcela],Empréstimos[Parcela],Impostos[Estimado 
-custo],Poupança[Estimado 
-custo],Presentes[Estimado 
-custo],Assessoria_jurídica[Estimado 
-custo])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F69" s="5"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88"/>
-      <c r="J69" s="83"/>
-    </row>
-    <row r="70" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F70" s="5"/>
-      <c r="G70" s="85" t="s">
-        <v>43</v>
-      </c>
-      <c r="H70" s="85"/>
-      <c r="I70" s="85"/>
-      <c r="J70" s="84">
-        <f>SUBTOTAL(109,Moradia[Data de pagamento],Transporte[Data de pagamento],Seguro[Data de pagamento],Alimentação[Real 
-custo],Entretenimento[Data de pagamento],CuidadosPessoais[Real 
-custo],Entretenimento[Data de pagamento],Empréstimos[Data de pagamento],Impostos[Real 
-custo],Poupança[Real 
-custo],Presentes[Real 
-custo],Animais_de_estimação[Real 
-custo])</f>
-        <v>593112</v>
-      </c>
-    </row>
-    <row r="71" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F71" s="5"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="85"/>
-      <c r="I71" s="85"/>
-      <c r="J71" s="84"/>
-    </row>
-    <row r="72" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F72" s="5"/>
-      <c r="G72" s="81" t="s">
-        <v>44</v>
-      </c>
-      <c r="H72" s="81"/>
-      <c r="I72" s="81"/>
-      <c r="J72" s="82">
-        <f>J68-J70</f>
-        <v>-593110</v>
-      </c>
-    </row>
-    <row r="73" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F73" s="5"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="81"/>
-      <c r="I73" s="81"/>
-      <c r="J73" s="82"/>
-    </row>
-    <row r="74" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="6:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="6:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="6:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="6:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="6:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F80" s="5"/>
     </row>
     <row r="81" spans="6:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F81" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="23">
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="G40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="G38:I39"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G68:I69"/>
+    <mergeCell ref="G36:I37"/>
     <mergeCell ref="E4:G5"/>
     <mergeCell ref="E6:G7"/>
     <mergeCell ref="E8:G9"/>
@@ -6679,16 +4290,6 @@
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="G34:J34"/>
     <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="G70:I71"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="G58:J58"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="12">
@@ -6715,56 +4316,21 @@
     <brk id="44" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="J36:J39 E28:E30 E35:E37 J44:J46 J51:J53 J69 E51 J71" emptyCellReference="1"/>
+    <ignoredError sqref="E28:E30 J37 J39" emptyCellReference="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
-  <tableParts count="12">
+  <tableParts count="6">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
-    <tablePart r:id="rId10"/>
-    <tablePart r:id="rId11"/>
-    <tablePart r:id="rId12"/>
-    <tablePart r:id="rId13"/>
-    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -7064,27 +4630,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08AC7FD9-EBCF-4CC4-BE1C-34B80F7E8353}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1766A65-F7C1-4A05-AEB7-FE8822B53FAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48771426-2A7A-4B36-9D43-BE262652591C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7103,4 +4678,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1766A65-F7C1-4A05-AEB7-FE8822B53FAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08AC7FD9-EBCF-4CC4-BE1C-34B80F7E8353}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Análise.atualizado.xlsx
+++ b/Análise.atualizado.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC20E0C-AB9F-4CC0-AE2C-92536D05BA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD70EA0C-2C10-44A2-9030-58A49955E34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
   <si>
     <t>Sobre este modelo</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>Iluminação</t>
-  </si>
-  <si>
-    <t>Valor: 4150,00</t>
   </si>
 </sst>
 </file>
@@ -863,6 +860,33 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="11"/>
     </xf>
@@ -899,38 +923,11 @@
     <xf numFmtId="8" fontId="9" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="17" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -944,97 +941,6 @@
   <dxfs count="94">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1064,6 +970,29 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
@@ -1090,6 +1019,29 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
@@ -1113,6 +1065,29 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1138,103 +1113,22 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1349,20 +1243,46 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -1370,20 +1290,46 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -1391,24 +1337,75 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1" tint="0.34998626667073579"/>
-        <name val="Calibri"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1" tint="0.34998626667073579"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3101,10 +3098,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="21" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Parcela" dataDxfId="20" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Data de pagamento" dataDxfId="19" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Pago" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="0" totalsRowLabel="Subtotal" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Parcela" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Data de pagamento" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Pago" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>Seguro[[#This Row],[Parcela]]-Seguro[[#This Row],[Data de pagamento]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3118,7 +3115,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Alimentação" displayName="Alimentação" ref="B34:E35" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" totalsRowDxfId="13" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Alimentação" displayName="Alimentação" ref="B34:E35" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" totalsRowDxfId="9" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="8">
   <autoFilter ref="B34:E35" xr:uid="{00000000-0009-0000-0100-000008000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3126,10 +3123,10 @@
     <filterColumn colId="3" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="0" dataDxfId="3" totalsRowDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Parcela" dataDxfId="2" totalsRowDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Data de pagamento" dataDxfId="0" totalsRowDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Pago" dataDxfId="1" totalsRowDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="0" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Parcela" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Data de pagamento" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Pago" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Catálogo de endereços" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3411,8 +3408,8 @@
   </sheetPr>
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3431,31 +3428,31 @@
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="94.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="78"/>
+      <c r="C4" s="87"/>
       <c r="D4" s="13"/>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="80">
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="89">
         <f>C7</f>
         <v>60000</v>
       </c>
@@ -3467,10 +3464,10 @@
       <c r="C5" s="47">
         <v>30000</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="80"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="89"/>
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3480,14 +3477,14 @@
       <c r="C6" s="48">
         <v>30000</v>
       </c>
-      <c r="E6" s="75" t="s">
+      <c r="E6" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="81">
-        <f>SUM(Moradia[[#Totals],[Valor]])</f>
-        <v>3690</v>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="90">
+        <f>SUM(C12,E17,J25,E21,Seguro[[#Totals],[Pago]],Empréstimos[[#Totals],[Pago]],Alimentação[Pago])</f>
+        <v>20222.599999999999</v>
       </c>
       <c r="I6" s="15"/>
     </row>
@@ -3499,34 +3496,34 @@
         <f>SUM(C5:C6)</f>
         <v>60000</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="81"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="82">
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="91">
         <f>H4-H6</f>
-        <v>56310</v>
+        <v>39777.4</v>
       </c>
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="13"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="82"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="91"/>
       <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3675,12 +3672,12 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="84"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="5"/>
       <c r="G19" s="35" t="s">
         <v>22</v>
@@ -3779,12 +3776,12 @@
       <c r="J24" s="52"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="85" t="s">
+      <c r="B25" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
       <c r="F25" s="5"/>
       <c r="G25" s="36" t="s">
         <v>9</v>
@@ -3846,12 +3843,12 @@
         <v>0</v>
       </c>
       <c r="F28" s="39"/>
-      <c r="G28" s="85" t="s">
+      <c r="G28" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
     </row>
     <row r="29" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="35" t="s">
@@ -3934,17 +3931,17 @@
       <c r="J32" s="64"/>
     </row>
     <row r="33" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="84"/>
-      <c r="D33" s="84"/>
-      <c r="E33" s="84"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
     </row>
     <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="44" t="s">
@@ -3960,10 +3957,10 @@
         <v>38</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
     </row>
     <row r="35" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="35" t="s">
@@ -3975,8 +3972,8 @@
       <c r="D35" s="69">
         <v>45726</v>
       </c>
-      <c r="E35" s="52" t="s">
-        <v>44</v>
+      <c r="E35" s="52">
+        <v>4150</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="31"/>
@@ -3990,26 +3987,26 @@
       <c r="D36" s="64"/>
       <c r="E36" s="64"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="73" t="s">
+      <c r="G36" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="89" t="e">
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="77" t="e">
         <f>SUBTOTAL(109,Moradia[Parcela],Transporte[Parcela],Seguro[Parcela],Alimentação[Parcela],#REF!,#REF!,Entretenimento[Parcela],Empréstimos[Parcela],#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="83"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="84"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="73"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="89"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="77"/>
     </row>
     <row r="38" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="46"/>
@@ -4017,12 +4014,12 @@
       <c r="D38" s="32"/>
       <c r="E38" s="33"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="91" t="s">
+      <c r="G38" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="90" t="e">
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="78" t="e">
         <f>SUBTOTAL(109,Moradia[Data de pagamento],Transporte[Data de pagamento],Seguro[Data de pagamento],Alimentação[Data de pagamento],Entretenimento[Data de pagamento],#REF!,Entretenimento[Data de pagamento],Empréstimos[Data de pagamento],#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -4034,10 +4031,10 @@
       <c r="D39" s="52"/>
       <c r="E39" s="52"/>
       <c r="F39" s="39"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="90"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="78"/>
     </row>
     <row r="40" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="35"/>
@@ -4045,12 +4042,12 @@
       <c r="D40" s="52"/>
       <c r="E40" s="52"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="87" t="s">
+      <c r="G40" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
-      <c r="J40" s="88" t="e">
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="76" t="e">
         <f>J36-J38</f>
         <v>#REF!</v>
       </c>
@@ -4061,10 +4058,10 @@
       <c r="D41" s="52"/>
       <c r="E41" s="52"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
-      <c r="J41" s="88"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="76"/>
     </row>
     <row r="42" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="35"/>
@@ -4095,10 +4092,10 @@
       <c r="F45" s="5"/>
     </row>
     <row r="46" spans="1:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="92"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
+      <c r="B46" s="73"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="74"/>
+      <c r="E46" s="74"/>
       <c r="F46" s="5"/>
     </row>
     <row r="47" spans="1:10" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4267,13 +4264,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="G40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="G38:I39"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="G33:J33"/>
     <mergeCell ref="G36:I37"/>
@@ -4290,6 +4280,13 @@
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="G34:J34"/>
     <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="G40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="G38:I39"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <dataValidations count="12">
@@ -4331,6 +4328,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="26" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ac37c1753acd5e330d2062ccec26ea66">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3b340c7101c92c5120abd06486f94548" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4630,36 +4656,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08AC7FD9-EBCF-4CC4-BE1C-34B80F7E8353}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1766A65-F7C1-4A05-AEB7-FE8822B53FAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48771426-2A7A-4B36-9D43-BE262652591C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4678,24 +4695,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C1766A65-F7C1-4A05-AEB7-FE8822B53FAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08AC7FD9-EBCF-4CC4-BE1C-34B80F7E8353}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>